--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -172,7 +172,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC08-0002</t>
+    <t xml:space="preserve">ATC08-0001</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-16</t>
@@ -345,15 +345,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,7 +377,7 @@
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -394,7 +394,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="10.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.44"/>
@@ -415,19 +415,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="36" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="40" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="12.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="8.77"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="55" min="51" style="1" width="2.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="58" style="1" width="2.67"/>
   </cols>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -172,10 +172,10 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC08-0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">ATC08-0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -345,15 +345,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,7 +377,7 @@
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -394,7 +394,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="10.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.44"/>
@@ -415,19 +415,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="36" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="40" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="10.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="8.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="55" min="51" style="1" width="2.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="58" style="1" width="2.67"/>
   </cols>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -172,7 +172,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC08-0002</t>
+    <t xml:space="preserve">ATC08-0010</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-01</t>
@@ -377,7 +377,7 @@
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t xml:space="preserve">contractNo</t>
   </si>
   <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
     <t xml:space="preserve">creationDate</t>
   </si>
   <si>
@@ -136,9 +139,6 @@
     <t xml:space="preserve">detail2</t>
   </si>
   <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
     <t xml:space="preserve">number</t>
   </si>
   <si>
@@ -172,7 +172,10 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC08-0010</t>
+    <t xml:space="preserve">ATC08-0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-31</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-01</t>
@@ -187,9 +190,6 @@
     <t xml:space="preserve">2023-08-22</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-12-31</t>
-  </si>
-  <si>
     <t xml:space="preserve">new_entry</t>
   </si>
   <si>
@@ -244,10 +244,7 @@
     <t xml:space="preserve">ภัยที่ผู้รับประกันภัยรับเสี่ยง</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[][มอบฉันทะ][][][]</t>
+    <t xml:space="preserve">[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
   </si>
   <si>
     <t xml:space="preserve">U0105556078229000</t>
@@ -377,48 +374,47 @@
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="20.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="7.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="36" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="40" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="12.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="7.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="4.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="37" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="12.76"/>
@@ -429,14 +425,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="8.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="55" min="51" style="1" width="2.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="58" style="1" width="2.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="59" style="1" width="2.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -544,7 +540,7 @@
       <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
@@ -608,84 +604,84 @@
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="U2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>59</v>
@@ -695,23 +691,23 @@
       </c>
       <c r="AP2" s="2"/>
       <c r="AR2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -172,7 +172,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC08-0013</t>
+    <t xml:space="preserve">ATC08-0015</t>
   </si>
   <si>
     <t xml:space="preserve">2023-12-31</t>
@@ -374,7 +374,7 @@
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -172,7 +172,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC08-0015</t>
+    <t xml:space="preserve">ATC08-0016</t>
   </si>
   <si>
     <t xml:space="preserve">2023-12-31</t>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\27 ตราสาร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987FD63B-675A-4710-B30E-8FB459CC841F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEC6DC5-B337-4167-A4F9-BE41BF1A0A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>creationDate</t>
   </si>
@@ -182,9 +182,6 @@
     <t>2023-12-31</t>
   </si>
   <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -260,10 +257,16 @@
     <t>contractPartyLastName</t>
   </si>
   <si>
-    <t>contractNO</t>
-  </si>
-  <si>
-    <t>Auto2_</t>
+    <t>contractNo</t>
+  </si>
+  <si>
+    <t>Auto6_</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>2024-09-17</t>
   </si>
 </sst>
 </file>
@@ -629,15 +632,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
@@ -686,13 +689,13 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -740,7 +743,7 @@
         <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
@@ -844,72 +847,72 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto2_8</v>
+        <v>Auto6_8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -917,54 +920,52 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AN2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AR2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\27 ตราสาร\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEC6DC5-B337-4167-A4F9-BE41BF1A0A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED02B4D4-7AE7-4DFC-8B0C-AA21E848AE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,13 +260,13 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>Auto6_</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>2024-09-17</t>
+  </si>
+  <si>
+    <t>Auto11_</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -847,13 +847,13 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto6_8</v>
+        <v>Auto11_8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -891,7 +891,7 @@
         <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>56</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED02B4D4-7AE7-4DFC-8B0C-AA21E848AE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E558A6-6832-4DA8-A4E8-876CD5DF6DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
     <t>contractPartyLastName</t>
   </si>
   <si>
@@ -266,7 +263,10 @@
     <t>2024-09-17</t>
   </si>
   <si>
-    <t>Auto11_</t>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>Auto12_</t>
   </si>
 </sst>
 </file>
@@ -689,13 +689,13 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -743,7 +743,7 @@
         <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
@@ -847,13 +847,13 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto11_8</v>
+        <v>Auto12_8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E558A6-6832-4DA8-A4E8-876CD5DF6DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3E37B-4103-44F7-B05B-D1D709DCC2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
     <t>2023-10-01</t>
   </si>
   <si>
-    <t>Auto12_</t>
+    <t>Auto16_</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto12_8</v>
+        <v>Auto16_8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>75</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3E37B-4103-44F7-B05B-D1D709DCC2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F608383-45F3-428A-9410-217DDD0CC997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -263,10 +263,10 @@
     <t>2024-09-17</t>
   </si>
   <si>
-    <t>2023-10-01</t>
-  </si>
-  <si>
-    <t>Auto16_</t>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>Auto17_</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto16_8</v>
+        <v>Auto17_8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>75</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F608383-45F3-428A-9410-217DDD0CC997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5E09BA-1A68-4469-9E00-0CDDC0B19407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
     <t>2023-10-16</t>
   </si>
   <si>
-    <t>Auto17_</t>
+    <t>Auto20_</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto17_8</v>
+        <v>Auto20_8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>75</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5E09BA-1A68-4469-9E00-0CDDC0B19407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2692F3D-0729-4139-AC2A-2B378261EC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -263,10 +263,10 @@
     <t>2024-09-17</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
-    <t>Auto20_</t>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>Auto24_</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto20_8</v>
+        <v>Auto24_8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>75</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2692F3D-0729-4139-AC2A-2B378261EC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4F9F6-629F-4D84-83DB-F8D177ED50B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -263,10 +263,10 @@
     <t>2024-09-17</t>
   </si>
   <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>Auto24_</t>
+    <t>Auto27_</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -636,58 +636,57 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="22" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.44140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="14.109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="8.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.7109375" style="1" customWidth="1"/>
     <col min="37" max="41" width="9" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10.109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="10.140625" style="1" customWidth="1"/>
     <col min="43" max="43" width="10" style="1" customWidth="1"/>
-    <col min="44" max="44" width="12.77734375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="14.44140625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="11.6640625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="17.21875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="18.44140625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="10.21875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="8.77734375" style="1" customWidth="1"/>
-    <col min="51" max="55" width="2.6640625" style="1"/>
-    <col min="59" max="16384" width="2.6640625" style="1"/>
+    <col min="44" max="44" width="12.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="14.42578125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" style="1" customWidth="1"/>
+    <col min="49" max="49" width="10.28515625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="8.7109375" style="1" customWidth="1"/>
+    <col min="51" max="55" width="2.7109375" style="1"/>
+    <col min="59" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -844,13 +843,13 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto24_8</v>
+        <v>Auto27_8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>74</v>
@@ -891,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>56</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4F9F6-629F-4D84-83DB-F8D177ED50B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA33372-8D92-43C2-AC7A-D090B139CFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -242,9 +242,6 @@
     <t>ภัยที่ผู้รับประกันภัยรับเสี่ยง</t>
   </si>
   <si>
-    <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
-  </si>
-  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
@@ -263,10 +260,13 @@
     <t>2024-09-17</t>
   </si>
   <si>
-    <t>Auto27_</t>
-  </si>
-  <si>
-    <t>2023-11-16</t>
+    <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
+  </si>
+  <si>
+    <t>Auto38_</t>
   </si>
 </sst>
 </file>
@@ -632,8 +632,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,13 +688,13 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
@@ -846,13 +846,13 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto27_8</v>
+        <v>Auto38_8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>56</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="AP2" s="2"/>
       <c r="AR2" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="3"/>
@@ -958,13 +958,13 @@
         <v>52</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA33372-8D92-43C2-AC7A-D090B139CFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A138A984-92D3-4CA9-9641-1179DE40A8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,10 +263,10 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-01-02</t>
-  </si>
-  <si>
-    <t>Auto38_</t>
+    <t>Auto40_</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -333,9 +333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -373,7 +373,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -479,7 +479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -621,7 +621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -846,10 +846,10 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto38_8</v>
+        <v>Auto40_8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>73</v>
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>56</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F165EC8-12F2-40E1-A042-92B53094638F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9F44C-ED42-4854-857B-7EA72EBF8C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,10 +263,10 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>Auto45_</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>Auto60_</t>
   </si>
 </sst>
 </file>
@@ -333,9 +333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -373,7 +373,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -479,7 +479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -621,7 +621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -846,10 +846,10 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto45_8</v>
+        <v>Auto60_8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>73</v>
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>56</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9F44C-ED42-4854-857B-7EA72EBF8C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4320C24D-13C3-4605-8E5B-C1FF14E2754F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -263,10 +263,10 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>Auto60_</t>
+    <t>Auto71_</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -846,10 +846,10 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto60_8</v>
+        <v>Auto71_8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>73</v>
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>56</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4320C24D-13C3-4605-8E5B-C1FF14E2754F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48695281-ECCC-4CA4-8139-48317FAD9E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -263,10 +263,10 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>Auto71_</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
+    <t>Auto73_</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto71_8</v>
+        <v>Auto73_8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>76</v>
